--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/46_Kastamonu_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/46_Kastamonu_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C330CC-9B39-46DD-A353-1CA67282BC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66EB33BF-9D11-492A-8042-2B0972BD98E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{B440C1A1-E896-4BE9-9E6D-59DC0EE22D39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{6F9FE2C1-71EF-462B-81F5-D32561E2A2FF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C2B88127-FE4D-4376-8B23-E933E19BF484}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{717F0261-5C3A-4A3C-A498-AC53953717CA}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{72262DC5-C16A-422F-A51E-82064C8C1484}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0CD97466-BC93-4917-962C-DAD41FEDE6E2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{46FA8C4A-8882-49DB-B941-C68916ECA9EF}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B43F85E0-140F-4405-84BB-B19F0563AD7D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A9104B1D-08D1-4323-80A9-8746DF855293}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C733EDC-1D9A-449B-808B-91CED0F6BC34}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{811D4C8A-6406-4D3B-A050-5AB52A8BAE71}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B1ADBF20-4017-476E-81D3-0FC5D34DE2D0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2DCC3CE6-856E-4358-9EBE-8582CF0ACE4E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5A6ABAC2-EE22-4057-9791-80FE2AEE5242}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{371FDFD0-9B31-4E2C-B700-653F1044134D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{84E72992-7E05-415C-822C-FED10F68A38C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6235B7CA-07BA-451B-AF4B-E1C587A8C1FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD8168-FC76-470F-AEFB-D15FAB055029}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5653F5A5-1004-42C3-B58F-AFD368F2FF7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A80A8196-B5F6-40F1-83BC-206E66668D6B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E58CC5B5-77DB-4E9D-A107-1A43F5F25707}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA6235D7-8B90-4D29-8914-3D97FF9FC33E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{894F7844-70C3-423A-B7D1-B2D6DE54A291}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97CA36F9-9B61-41D8-BC99-61E5CCBE8A16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DF6414C-273F-42A9-9C42-DE967634F777}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28868065-AA10-44E2-9470-C3A6E647FCAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D7D056C-4D0A-4DB5-A4BC-917C60C4D113}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{050E3BC1-A899-49D0-B652-EF9B17CF6F20}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83D96CE1-0728-4513-B7E5-27D369CD6E49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48B793AD-430E-4F3F-80EF-F7EA52F9B113}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BF0DD54-13A2-4129-9837-A0FB690D909B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10F3B31D-B657-45F6-8641-8E4DCF13D1E6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BBBC132-0FE5-487D-A8EE-D0D50AF52483}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBBB2E2D-D135-4425-AAF4-21F8A20A6C8D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5A096DB6-79C9-4DDF-BDEA-D1638123DAA6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E65D9F1F-E410-4F6F-A26E-334BE6B3B024}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1F973ED-4A5D-4387-9C82-5DA6649040DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA87AC3C-FA68-4757-85A7-EEBD359BDA16}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6CF4DDA-C510-4ACA-8ADD-D48E958FD5C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2EA392D-1738-4A4D-94BE-1B58714EFD55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5294D31E-3AD6-4F02-8750-4BA8B3B3F770}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8621D83D-D10C-48B0-A5DA-2BC1D0E2CE77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D25E73-A5A7-4829-B74C-CAAD5F28F689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1AAFB8-9514-49A9-8102-6B91E68B2EC8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3827,18 +3827,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0FB6200-27AE-43B6-A731-5BB4F8418CF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A76E78F6-E8D8-4E68-B91D-205C30926109}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9C55677-AD68-4D32-BABC-F895F511EF1B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{779CB339-FB44-438D-A035-06FA87699CA7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2271E310-9BE4-4E02-BD06-03103E2B7D79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{659F6370-E142-4E49-A750-B53A36C82371}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9870209-F4CE-42F3-BDD9-E72302A8F2C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6ABBD11-FED2-4829-ACD4-39520E101143}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21EE8B0C-CE4E-4AF2-928B-B8610FEEC658}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B64F3D3A-EF86-4D76-84F6-C27E06B1FDE0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BF099F7-9744-4676-85EA-8602D1737AA5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27C93CE6-9144-436E-9C9A-ED2E88FB3A23}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3791604-F68C-4E27-BE66-FBEBDA905C1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9755AEE2-560F-41C7-BA20-E50EDBEFDFAF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B67CDB7-73E4-4385-8987-8B8D45D55A83}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7BC5300B-A1B8-41EC-8BA6-B47E4DB5E739}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{359813AE-9DE2-4AED-9CA2-96C7B47A5561}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7C5363E-F3E3-43F5-8673-24695080C477}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC9303C0-FE80-45F5-A844-C4C9EC9C816C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{041AFE9E-EE99-4179-A173-1F45D39E6774}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C12BFA7-28D1-484E-AD19-684FB97A759D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B64B912-4261-4C8D-B0D8-C247948A6470}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF6CD210-62EA-46C7-999E-5074B8C1C042}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{326C0B0C-13FC-4AAA-8C17-E7104903C38C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3851,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9913EC32-7731-4DF8-B2AE-98C1DBBE87C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F03F32-254E-4649-A18D-992603C5FE2B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5074,18 +5074,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71FAE553-B56E-4A5E-AE6B-334C954E4C4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4301BA11-FF1E-4BB6-8C29-468A4D2692BC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C474555-80B4-4904-96B7-E9DB3C0BC7D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB29543E-C976-4D3A-B479-619B0B6A56F3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{87A5B6CE-7BCD-428E-81C9-CF029158C793}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5071C4F-4E75-4714-9A77-00F2F25287EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CA8EA7D-D51F-425C-A3C2-25EEBF758EDC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7613292-9ADE-454B-A967-54AEAD90351C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB7413A8-8BCF-49E3-BE1B-28B9EA490290}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{568C4B9D-756E-4251-90A4-E656AD8C8A5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23BD47B9-2FAD-45C1-AF83-C1538BB0604C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D38B604-5D06-4E36-AE5A-E81C7ABBFDC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E18520AE-6024-4408-BA98-F634B0AC2E46}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D0C1330-B204-4155-8823-7E5B0BA56FB7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{853B98AA-DF3A-4E0B-80CE-6D73BF8383E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDF7AFF5-B217-4855-8326-73D4FC2DE5D8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{115CAFDF-2AAC-45F2-9331-4C3D6B4E7A99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65201BE8-DD61-4215-B787-7004A406C780}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6015F3CF-2CBE-466F-9338-3C6BA5E75FA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8050399E-0047-45F4-8A9B-703AA227EE34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9277159-47E9-4AD3-A843-2A4190AB912B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D14CA80C-8D6D-4225-A05F-4E20F91F36D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3306DA9-3A8D-49B5-BACA-6A38A61885CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88E6632B-1DD0-4C14-A17F-71DAAC0B7223}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5098,7 +5098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74F59C4-E82D-4D32-A6B5-61369FE389CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CD3A23-4239-4CB7-81F1-8639CB868264}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6304,18 +6304,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{945E50C9-D040-4AA6-9A5D-512F29A21123}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{673CC9BA-B667-466F-93F9-71B4878C0E60}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{079A0516-38F7-4F99-8665-4B9B110BAA43}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{328B902A-061D-40A1-96BA-BEE7163C80BD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{83615667-78B3-493E-94CE-529B71F79CFE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{684502D1-AD97-40A0-8B67-2B441C3061D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E81CDFCF-595C-4056-BB58-0646E1D07CBE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8061789D-730F-4DBD-814E-A0D2896FB2D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41282B8D-8358-4A61-B699-73BCBC270EE5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DA4035B-3268-4309-8485-4F42208274EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{605FF4C2-5BF7-4D75-9D3A-A8044373EDE2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C70C4CA-D73C-4242-A731-FA6D5AAEE9A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92E730A5-3F7D-468B-AD71-0088F055092B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CBC15D8-FD4A-417D-A6B5-F6F5F792D409}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1F383CB-00CB-4DF0-82CA-16BADF5292C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37C8176D-DAA1-4627-86EF-5E6AC3C4DB3F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CB23AFFC-AB7B-4EEC-AD44-0F9DD707697F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B33276B-744E-4FF5-BF82-957690D11FEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFA22C00-6788-456E-B160-F090046E4DB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E7CE996-A6DF-4199-9DCD-F3A3316B72A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60914FB7-00B2-44FE-B37A-CAFBF25FEF7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD35BEEE-3D05-44D9-9526-D862DECE1208}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76D4C1BC-A5CA-4B84-B56E-0A6799EAAAF7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53BC1B80-CA9A-4C2B-AA88-75478CEBBE64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6328,7 +6328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D15D11-2783-4684-B90B-6B5BCCBE8641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B794E347-13CA-448B-B8A8-3F2EFB834B14}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7573,18 +7573,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E596CDB8-9496-4774-9D26-AC251BB7ED43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0339E1B-0BB1-46A0-86C6-9F409F74B597}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5728B821-EBFC-47C5-AB2C-653CA4E878ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DEACE04A-B02D-46E9-9384-F5B2FE6930BC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AC7141D1-700C-4173-87DF-5D818C319009}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83ECD6F6-ED2A-4129-AE24-2B17052EA36C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A241ACF0-3C07-4B3D-AACB-BB1EE9684CF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C11C82E-DE6C-4E91-BD42-14F6F54814BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D06CD17E-D8F1-4933-9EDD-7510964D0BDE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79D0C65A-BB8C-4089-A033-A3CD2AFF69E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCE3D877-B9CE-4D33-8CD8-3FC52B58E1F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA3CCEEB-675F-499F-ABA4-A93377EC422C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAED6011-E5E9-4CB0-AB80-16289672594F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9399E7D-A707-4438-9156-0C662B8AEF1E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{934D8F66-4737-4282-A4CC-673A09586C9D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9D82845-E336-4097-AAF3-F23A646E6805}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FB37E751-C91E-48E2-B71A-424FAA2128F0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEE7B034-C856-4DB2-81D3-0AF83CF62A15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3103D35E-251B-449F-B6A2-0FE4BA40257B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27A3C537-3132-4CB5-BE5C-53693250DEC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75906639-5C77-48F0-9B62-0528B053FB98}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEA20CB0-6DC5-4B2B-9E05-AC5A3B05BF0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B534F54-36A7-410A-AA60-5B9681484B63}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18B3E6A6-8710-4970-8762-FB4F5E646630}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7597,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7B3B07-430D-4F8C-BD69-617757BCFC8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59CF8D-4EDA-40F6-953A-F2998C46D18D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8842,18 +8842,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A70ABA03-E9DD-40E5-B66B-095F15204E58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B717BD7B-438B-4567-A30A-877E799D5628}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DFB7D0D0-0EC4-410D-B906-CFFE3886635B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3114E466-16BA-4AD4-A587-0086042C9308}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DC2F8995-2F5C-4AA3-B92A-649DFD8FBD22}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EF4103F-5C79-463C-BA20-6CD1BFE8267D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61CFD2A3-A0A3-4108-A869-56D9B7DB39AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDF037F4-A5A2-4573-A5A6-A3FB000099CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24292388-0A20-4F8F-9C6A-1226E15DCF77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93A3DE6B-D5B8-487E-9313-DCC286E09D77}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1E37350-052F-4847-BD39-49363BF59524}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA8880A4-46D4-475E-9C33-1635F24212A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A684F1BC-42BE-446F-AE47-15C18A106828}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FF22BEF-4026-48E8-8C08-413BDE431B80}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40D9A523-CF13-4625-9FCF-A937545AF8CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19A9A406-E3C5-4609-B1F7-BFF1DD1315FE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A37B7CE2-2148-4878-A144-A08C5EDF769D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61E0DA86-E65C-4746-BC62-C89C991806D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4F876B0-28FD-4DEB-BE47-047D059BD803}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3132C1E-F9B2-4BCA-9F9F-5D1ABB1BDDE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E76ABAB7-7766-45F4-A9A3-A20588AA0023}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{106AA7A3-D69B-457C-BBE9-C94D8F08B917}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AFD225F-3BB1-4D14-9195-0BF478FA61D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6108F6F6-69F4-4659-BF80-DAB82454673E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8866,7 +8866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC7669E-F473-4EC2-908F-B4699D5B3ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3FB3F-5D46-44F4-84E4-1353B91AE4B9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10107,18 +10107,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30669565-44F9-490D-9387-5D44DD1B4424}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6712EC09-2DA0-4928-8C3B-5C43D73B7D9F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03B33154-ADF1-44AF-89B9-15708061C134}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6D7BD80-DA9C-4599-84C5-29F5928DDDAF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{92900BCA-F789-4374-B798-0BC57407267B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D620310A-0E7A-4619-B5B9-6A9C130E3EAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5BC5B35-3E7E-439B-A925-317189772C39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5D55FEA3-9571-4FF0-B7B0-6EA995972BC5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C4270EB-7087-4712-AF7E-1C701695DD15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E1777EC-BF99-4B5D-B14D-B94F31E08DEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1684BB7-28ED-4A39-9FA0-F0C5CD11CC1F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1119A63A-5755-415D-ACF3-B9B0F82961DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30464F96-929E-4DAD-946E-D318DBE71F5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{653364B1-810B-414E-8232-6CEF7D9069E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{375D60A7-660E-4F07-A8F2-69AB6788D54B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E6D39A9-8B79-4B22-9195-4E048C575BE0}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4FD7C7C0-AD4F-426A-8159-C857B0428D1D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F62E6FEC-44CD-4357-A308-894C9E996D7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{622A935B-E868-42A3-8341-296BFBFF3563}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3CE4314C-E6B5-414E-9A46-9B6FBE271294}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C47D307-0E2A-46B2-B1EF-0F315FAB3699}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A519C12A-0B8C-4D5A-B755-D367A78171E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E64E67B-BB1C-4BD4-9EF4-464F253C3511}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5E27372-AFC4-4D7D-84A6-8573CD0748EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10131,7 +10131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027FC859-A014-45C3-B47B-D38B3B61E3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40897F9E-4304-4A80-B79B-53DAB45FD3D9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11372,18 +11372,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A4B6B53-5098-4D2F-854A-2A2E891A304A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{626BE302-8333-4597-9D5C-F5191323C75D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56AA8373-34F7-418B-B0BB-0A4AE2DB2DBE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD53B17A-D653-446D-AC63-6EFE5F62765B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1FF61E9E-F264-453F-9123-3AFE7874DBAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD47B841-6480-471D-9326-97D9BC38A336}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D46C5C1-F854-40DD-B790-7B5EA4EC1B8B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E81597D2-902F-4D39-A706-866959ACCAED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C04BE57D-86AD-442F-8685-F4DCA10C0845}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97A39A89-5FDF-48A5-B8EA-DF8231DAD5F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2DDA8FC-98B2-47F0-8B4D-D90144352F6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB94BA04-E0BA-41A4-98B9-734776FCABFC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2902FFAC-CE75-4E4B-AEC0-520688ADEA03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EF0E3A1-A042-44AB-A185-42C6C45818B1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2C36CF32-B640-4873-A911-33D48B6D64FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95A34BB2-2AED-4083-88F1-C840E84D30E5}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1B61D086-A3C1-4797-ADCA-36390053E374}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BE98014-34B3-4E22-B7F2-978A1E4C8B6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3BAF0B1-C19F-4D63-8580-C717AE4E943C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16891732-A64E-44E9-8898-5FB3E673934F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F43CA4BE-C70E-4DEF-8D5E-8C61304747D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8264BBC4-EE78-4BAA-BF83-9D7772DA2025}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0CB9AFD-0C8D-4343-BF37-4D8C9077FF2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15724F14-7A59-418F-A3D6-D281E366A342}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11396,7 +11396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED35EFDB-ADF1-4108-9E15-6EFC501949CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CEB9CF-BC65-472E-8FEC-9CE28177256F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12637,18 +12637,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A85388F4-DB4C-4CE0-BD26-41A262B4FB1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{616B5BC2-D79D-467C-95C4-649C007CAC5E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{013B5FD9-7EA7-46D0-AEFF-DD64297F5864}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{050EE0E5-7065-4E28-A5A4-E11B1E3B27D5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1770B0FD-77B6-4B00-B8F1-867A5E69133A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AFD2596A-C82E-406A-962A-4136A6321DAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BCFCAA7-0EDF-4D0C-B2D1-9DF30F0013B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F54D9C90-16EC-4920-B7FC-3345E06C3CCC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F02A7AEF-D196-4A4D-82FD-89539117581F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90BE56BC-7ED6-4B5C-9BDD-6F622B82FAD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F663A6CA-7C8F-449A-BF02-CDF302DBE8E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF93962D-2C85-4E8B-AE2E-A6C8262B5A3C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C18C613-6D06-43B2-AA53-13C01EC8DD4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1154EFF-66FE-4490-B02A-D4702DCEDE0E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFE4CFA2-4DBD-44AD-8EDF-879336B1E699}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D7CC353-3D62-4914-8D95-E18787FFE60C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8071282E-D66F-4B67-930C-B42316B197EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93EBAD00-0A65-4EA8-ABB5-68989A292550}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADF611F9-AAB7-4F22-BD8A-A9AC1DFDE1E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F1B8AA9-F2D9-4F42-8E97-491C4BE96DEB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAB55B94-A324-4A54-B0F2-8FE614DB8CC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A5F6BDB-FC2E-4CD2-9DF4-41EBC209F726}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3D68169-5F03-499C-85C7-49E956DC759F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73560BB7-CA31-4D6D-9076-1BC6FDF0DE7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12661,7 +12661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77A3EC5-A752-4F44-88A8-417A38C5E87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97AD556-D1D9-46D6-AFB8-E40D3A5E9259}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13898,18 +13898,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62403645-1978-4EBE-B497-58EE419F4894}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD16094D-D266-415C-A930-59983F46F4B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A9FCA07-2757-43FF-9CC4-2B39A527125D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41FAFFAE-E46F-48CA-9CD9-1559B1778EAB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F67898CA-214D-40CB-8552-5EC932CC0632}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B35D638-0639-4BCB-8FF7-7602E236FA32}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{037A505D-27C1-46D9-8119-81E792C841CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01432721-5491-4957-8DBC-0FC32851E1B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC1A5665-9EC8-4578-A9B2-DAC6032CDDCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A07E4873-CB80-4EA4-BE10-16B052622BE3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DD54CD9-E7B0-4C04-923C-BEA9A9CAC076}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2EFAE5C-92BA-4214-ABB0-607C072AFA7C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE558415-9275-4853-B4D7-E991B13A717D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAE3A74C-D48B-4A83-8487-34B3DA9CCDF7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE5683C0-2556-4F69-82D5-D50BD9CDE4AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B3BA11E-C5DC-4B8A-A8C0-D2FE5E6BD979}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FDED83DF-BC93-4EDC-8F9E-895B47674185}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56B0E334-8892-429A-BF70-CA7838068C76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D4207FC-00E2-469D-B31E-56BFC4530548}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FE364DB-746D-4CC1-9794-394D64BE9973}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73CB6E2B-E2E0-4B5B-8E1A-5F830FB4E457}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD0ADD50-D100-48A3-B6DA-544AF8AA38B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE6D61C9-9998-46D2-B796-1F3759CA3F6F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA932EA8-71B7-4EE0-A9EA-89A8F429A8C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13922,7 +13922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB14E1F-4DFD-4015-B384-6AC382D111FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF25249-A2E7-4B65-81FD-1743D6EBDA8A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15161,18 +15161,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{541D592B-03F7-420C-BCD8-52005A46F226}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F36FD344-7236-495B-868E-DC460FCEF239}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58DDC616-4838-4D01-934D-2A4AA7B88807}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DE44A90-9DA2-44CB-8E16-94E3D66A4911}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7D37EAA4-B231-4462-B791-53E9A270BABE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7396AD1A-0E4D-4271-9D2D-D624068D56C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E9499BD-B849-4A71-8728-D50831E1DAF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C52439E-E364-4140-B544-C7000CF240B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E28158CC-C53A-4A53-9869-1AAACB67966D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{682A3796-A6DF-445A-A547-85C89392FAD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B236844-F5BF-4EDB-830E-86741E6FDF31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37F907AA-8204-458E-9041-740099DAD1EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C2D4CF9-AFB6-456D-99C1-FD3C600E8F3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C434651E-B7F2-4A69-B684-611631B7584A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9060DA28-EF8A-43B1-BB0D-C357C6821807}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E41C317B-1F78-414B-A7C1-B8AA374AEF6B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{962B16AC-A951-4212-B430-AE40C45C35E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACD6C732-89D7-4833-B7B8-F645F79CBCE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5A4A0CC-2DA6-4F49-86D2-1FE6589CE3E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D48BF698-88A2-4261-921E-8837A1EBB081}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F2B99EB-1955-4CCA-A9FB-667D6CB39784}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{418BEC19-06B1-496E-9DFC-88DC20202D3C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C16BAE19-503B-4B30-948E-C82BEEC2173D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DF1AE1D-D1D3-4279-88C5-5EDE1E39AE46}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15185,7 +15185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D33C01B-1F9C-4DAF-86E2-0CB4F4846108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C9ECC6-E8C6-4DE5-A2AD-7616E70BF433}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16420,18 +16420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D38A303E-5256-4861-8FB6-ED9EB30BF868}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62218EEB-73CD-4DC0-8339-4F1FF75B4F07}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2146E8D6-C002-492A-9064-2AA0C37B168D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8D7D77A-3E55-4321-B1BB-FD3229EE8260}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3D6547FB-B4A4-4ADC-8E87-7E6C1F6F34C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F089C6B-DC2E-4803-B49A-593FD9814195}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B660BFDC-7F11-462C-805F-EA8C7642814F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7171D8B-0E91-42D6-8EDC-5835F2B0E1F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2076468-1B8C-4916-9DC4-3FCA1189E510}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A244E4D6-A69B-4781-8FD8-076B32714C49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F52B276-81B2-4674-A3DB-26A3F668EA25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2952EF02-D7CD-4BC9-8E9D-C9EB830BA999}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35308FAE-29E5-46A5-9932-52FFABC3C824}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BA371B6-F4F1-4D15-8E43-DCB73A7076ED}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{14327E53-32FD-463C-988E-7FD398334EAC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B50F4614-36A9-4E2F-9678-985266610710}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{16008BA5-8EF6-4393-80B2-BEF596A0495E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2AF5A0FE-F690-48DE-B15B-7FDD9F36A211}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCA76AEB-75A9-40E2-9792-AB3673862E77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF5A6F6B-20EC-4E95-B876-1E32195E8AE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{347A3A8A-74F2-48FD-9C44-34BF19AF468D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5487C7D1-0D17-436E-BA42-AD45F5E38EDF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BE2A051-2F5C-400A-8308-3010351A71C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68E09F2F-654B-4C9D-A149-2484A7F64995}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
